--- a/data/532/HKCSD/Merchandise Trade Index Numbers - Imports.xlsx
+++ b/data/532/HKCSD/Merchandise Trade Index Numbers - Imports.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H525"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17342,8 +17342,40 @@
         </is>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="1" t="n"/>
+      <c r="B526" s="1" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>+6.2</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>+11.4</t>
+        </is>
+      </c>
+      <c r="G526" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>-4.7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -17387,6 +17419,7 @@
     <mergeCell ref="A489:A500"/>
     <mergeCell ref="A501:A512"/>
     <mergeCell ref="A513:A524"/>
+    <mergeCell ref="A525:A526"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
